--- a/data_test/Wafer200_MoS2.xlsx
+++ b/data_test/Wafer200_MoS2.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VL251876\PycharmProjects\workspace\projects\Raman\P_23_10_DaProViz\data_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HoanLe/Documents/Python projects/SPECTROview/data_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE85E7EB-CE0C-C449-8193-2406A6FBE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan all wafer" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,9 +51,6 @@
   </si>
   <si>
     <t>Fwhm[nm]</t>
-  </si>
-  <si>
-    <t>wafer</t>
   </si>
   <si>
     <t>W04</t>
@@ -124,11 +133,14 @@
   <si>
     <t>LOM/E peak intensity ratio</t>
   </si>
+  <si>
+    <t>Wafer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,12 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -473,57 +484,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -535,52 +544,52 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>0</v>
@@ -589,1531 +598,1531 @@
         <v>1</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>-1.75</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>-0.75900000000000001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>10879.227500000001</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>519.72109999999998</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>4.9656000000000002</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>25.298670000000001</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>407.36891000000003</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>6.9753800000000004</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <v>1.9328000000000001</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>3869.2781100000002</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2">
         <v>35893.086990000003</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2">
         <v>1118.6614500000001</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2">
         <v>8884.0345699999998</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2">
         <v>382.07024000000001</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2">
         <v>7.4606899999999996</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2">
         <v>780.48263999999995</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2">
         <v>12060.18758</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2">
         <v>375.38889</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2">
         <v>9.8371899999999997</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2">
         <v>4.91859</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2">
         <v>0.99582999999999999</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2">
         <v>54.74579</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2">
         <f>L2/N2</f>
         <v>3.4588463828801825</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2">
         <f>S2/L2</f>
         <v>0.20171272723531364</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2">
         <f>S2/N2</f>
         <v>0.69769333697876146</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>45</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>-1.75</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>-0.76200000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>10029.7979</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>519.69650000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>4.8925000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>25.1175</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>407.19828999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>6.78207</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <v>1.8196600000000001</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>3949.4926500000001</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3">
         <v>35376.02089</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3">
         <v>1104.02369</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3">
         <v>8216.6172499999993</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3">
         <v>382.08078</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3">
         <v>6.9916900000000002</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3">
         <v>745.46910000000003</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3">
         <v>11451.410910000001</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3">
         <v>375.22404</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3">
         <v>9.7793399999999995</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3">
         <v>4.8896699999999997</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3">
         <v>0.99641999999999997</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3">
         <v>47.722839999999998</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3">
         <f t="shared" ref="Z3:Z66" si="0">L3/N3</f>
         <v>3.5773622303340251</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3">
         <f t="shared" ref="AA3:AA66" si="1">S3/L3</f>
         <v>0.18875059813062317</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3">
         <f t="shared" ref="AB3:AB66" si="2">S3/N3</f>
         <v>0.67522926070544742</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>90</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>-1.75</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>-0.77200000000000002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>12440.319299999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>519.70489999999995</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>5.0533000000000001</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4">
         <v>25.348220000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>406.99660999999998</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>6.8376299999999999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>2.2386200000000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>2862.7136300000002</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>27076.675930000001</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>860.39380000000006</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>7393.1727000000001</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <v>381.64839000000001</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4">
         <v>8.0723699999999994</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>604.67003</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4">
         <v>10312.223379999999</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4">
         <v>374.32292999999999</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4">
         <v>10.857100000000001</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4">
         <v>5.4285500000000004</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4">
         <v>0.99438000000000004</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4">
         <v>47.085239999999999</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4">
         <f t="shared" si="0"/>
         <v>3.3272132249209605</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4">
         <f t="shared" si="1"/>
         <v>0.21122267475982218</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4">
         <f t="shared" si="2"/>
         <v>0.70278287686405916</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>-45</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>-1.75</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>-0.74399999999999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>10662.6445</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>519.7713</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>5.0167999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>25.428599999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>407.53365000000002</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>7.0381200000000002</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>1.9878100000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>4314.1428699999997</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>40550.089169999999</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>1254.3084100000001</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5">
         <v>9214.5891200000005</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>382.10505000000001</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>6.9014300000000004</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>852.65346999999997</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5">
         <v>12918.03615</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5">
         <v>375.33629000000002</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5">
         <v>9.6450399999999998</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5">
         <v>4.8225199999999999</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5">
         <v>0.99643999999999999</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5">
         <v>53.355200000000004</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5">
         <f t="shared" si="0"/>
         <v>3.4394594149296975</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5">
         <f t="shared" si="1"/>
         <v>0.19764145409491274</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5">
         <f t="shared" si="2"/>
         <v>0.67977976006714325</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>-90</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>-1.75</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>-0.73599999999999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>10969.0615</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>519.83460000000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>5.0134999999999996</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6">
         <v>25.247820000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>407.30761999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>6.9644399999999997</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>1.8028999999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>3292.1333199999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>30056.078979999998</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <v>1017.21293</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>8048.0082700000003</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <v>382.0598</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6">
         <v>7.4326600000000003</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6">
         <v>765.23758999999995</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6">
         <v>12345.115599999999</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6">
         <v>375.12984999999998</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6">
         <v>10.270200000000001</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6">
         <v>5.1351000000000004</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6">
         <v>0.99551999999999996</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6">
         <v>52.045720000000003</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6">
         <f t="shared" si="0"/>
         <v>3.2364249636504323</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6">
         <f t="shared" si="1"/>
         <v>0.23244428934609487</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6">
         <f t="shared" si="2"/>
         <v>0.75228850069768571</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>43.25</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>-0.746</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>11295.680700000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>519.76869999999997</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>5.0942999999999996</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7">
         <v>25.03613</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7">
         <v>407.21006</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>6.9648399999999997</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>1.98631</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>3918.7496700000002</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>36529.23502</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>1075.2985100000001</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>8024.2146199999997</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <v>382.17392999999998</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7">
         <v>7.0103799999999996</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7">
         <v>773.03837999999996</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7">
         <v>12424.749659999999</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7">
         <v>375.46935999999999</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7">
         <v>10.232150000000001</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7">
         <v>5.1160699999999997</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7">
         <v>0.99641999999999997</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7">
         <v>48.474400000000003</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7">
         <f t="shared" si="0"/>
         <v>3.6443365572970059</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7">
         <f t="shared" si="1"/>
         <v>0.19726658886072709</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7">
         <f t="shared" si="2"/>
         <v>0.71890584131842594</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>88.25</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>-0.74</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>14061.96</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>519.75360000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>4.9619</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>24.820609999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>406.94234</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>6.8855500000000003</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>1.8728100000000001</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>2003.43723</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>18271.847689999999</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8">
         <v>622.89693</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8">
         <v>5056.57665</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <v>382.12173000000001</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8">
         <v>7.6261900000000002</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8">
         <v>418.91672999999997</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8">
         <v>5263.4883399999999</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8">
         <v>375.40807999999998</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8">
         <v>7.9988200000000003</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8">
         <v>3.9994100000000001</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8">
         <v>0.99277000000000004</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8">
         <v>37.797229999999999</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8">
         <f t="shared" si="0"/>
         <v>3.2163222091975956</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8">
         <f t="shared" si="1"/>
         <v>0.20909900431469969</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB8">
         <f t="shared" si="2"/>
         <v>0.67252977149847237</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>-46.75</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>-0.76</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>10595.9395</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>519.73220000000003</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>4.8967000000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>25.448060000000002</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>407.41978999999998</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>6.9625899999999996</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <v>1.8208200000000001</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>4367.3592900000003</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9">
         <v>39945.34274</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <v>1252.75836</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>9550.4374900000003</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <v>381.97172999999998</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9">
         <v>7.1618199999999996</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9">
         <v>787.98004000000003</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9">
         <v>12787.2158</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9">
         <v>375.13121999999998</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9">
         <v>10.330970000000001</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9">
         <v>5.1654799999999996</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9">
         <v>0.99670999999999998</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9">
         <v>51.888210000000001</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9">
         <f t="shared" si="0"/>
         <v>3.4861944884566567</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9">
         <f t="shared" si="1"/>
         <v>0.18042482600509838</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9">
         <f t="shared" si="2"/>
         <v>0.62899603399972526</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>-88.25</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>-0.76900000000000002</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>10866.1592</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>519.8021</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>4.9156000000000004</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>25.627099999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>407.48212000000001</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>7.1909400000000003</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>2.05253</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>3502.4741600000002</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>33715.187140000002</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>1095.6867</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>8988.6591700000008</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <v>381.85502000000002</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10">
         <v>7.7068399999999997</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>768.92749000000003</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10">
         <v>12884.156139999999</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10">
         <v>374.80187999999998</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10">
         <v>10.667210000000001</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10">
         <v>5.3335999999999997</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10">
         <v>0.99548000000000003</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10">
         <v>54.907330000000002</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10">
         <f t="shared" si="0"/>
         <v>3.1966018753353493</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10">
         <f t="shared" si="1"/>
         <v>0.21953837626599362</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10">
         <f t="shared" si="2"/>
         <v>0.7017767852799528</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>32</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>30.25</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>-0.753</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>11486.6504</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>519.69510000000002</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>4.9863</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>25.177800000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>407.15816000000001</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>6.8405500000000004</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>1.80335</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>4146.9323299999996</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>37326.639510000001</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>1129.3538900000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>8542.7024500000007</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>381.98036999999999</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>7.1061199999999998</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11">
         <v>755.65814999999998</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11">
         <v>11845.20773</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11">
         <v>375.15055000000001</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11">
         <v>9.9792400000000008</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11">
         <v>4.9896200000000004</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11">
         <v>0.99651000000000001</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11">
         <v>49.266179999999999</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11">
         <f t="shared" si="0"/>
         <v>3.6719511631557751</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11">
         <f t="shared" si="1"/>
         <v>0.18222099852784432</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11">
         <f t="shared" si="2"/>
         <v>0.66910660749572481</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
         <v>32</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>-33.75</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>-0.76400000000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>10970.232400000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>519.75049999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>4.9473000000000003</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>25.280539999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>407.33780999999999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>7.0869999999999997</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>1.94478</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>4305.6336300000003</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>40494.637329999998</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <v>1192.27054</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>9037.2977900000005</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>382.05727000000002</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>7.1208400000000003</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12">
         <v>811.51458000000002</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12">
         <v>12665.880359999999</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12">
         <v>375.46138999999999</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12">
         <v>9.9361700000000006</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12">
         <v>4.9680900000000001</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12">
         <v>0.99636999999999998</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12">
         <v>53.546120000000002</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12">
         <f t="shared" si="0"/>
         <v>3.6112891206722262</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12">
         <f t="shared" si="1"/>
         <v>0.18847738793790497</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12">
         <f t="shared" si="2"/>
         <v>0.68064634055287487</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
         <v>-32</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>30.25</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>-0.74199999999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>11168.374</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>519.73180000000002</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>4.9194000000000004</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>25.092449999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>407.22773999999998</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>6.8270600000000004</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>1.8932800000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>4275.0834199999999</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>38821.308519999999</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13">
         <v>1142.7473399999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>8360.7882699999991</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <v>382.13529</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>6.8732800000000003</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13">
         <v>809.94559000000004</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13">
         <v>12977.160690000001</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13">
         <v>375.47147999999999</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13">
         <v>10.200089999999999</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13">
         <v>5.1000399999999999</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13">
         <v>0.99621999999999999</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13">
         <v>52.948250000000002</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13">
         <f t="shared" si="0"/>
         <v>3.7410574239446492</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13">
         <f t="shared" si="1"/>
         <v>0.18945725976032535</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13">
         <f t="shared" si="2"/>
         <v>0.70877048814657495</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>-32</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>-33.75</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>-0.751</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>10169.3418</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>519.65880000000004</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>5.0415999999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
         <v>24.352</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <v>406.61991999999998</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>5.6546399999999997</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14">
         <v>2.0196800000000001</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>8600.2612900000004</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>68836.696309999999</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>2207.5860400000001</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14">
         <v>12641.87753</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <v>382.26792</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <v>5.37974</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14">
         <v>832.52274</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14">
         <v>11932.77016</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14">
         <v>376.85969999999998</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14">
         <v>9.1248400000000007</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14">
         <v>4.5624200000000004</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14">
         <v>0.99850000000000005</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14">
         <v>52.124009999999998</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14">
         <f t="shared" si="0"/>
         <v>3.8957762615675899</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14">
         <f t="shared" si="1"/>
         <v>9.6802028674177643E-2</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB14">
         <f t="shared" si="2"/>
         <v>0.37711904538044638</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
         <v>64</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>62.25</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>-0.755</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>13389.3223</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>519.55229999999995</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>4.8818000000000001</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>24.081800000000001</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>406.92057</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>6.9426600000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15">
         <v>1.76624</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>2100.2309</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>19046.982840000001</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15">
         <v>589.40948000000003</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15">
         <v>4153.4495200000001</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <v>382.83877000000001</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>6.6200200000000002</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15">
         <v>551.25536999999997</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15">
         <v>8908.9495299999999</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15">
         <v>375.91492</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15">
         <v>10.288539999999999</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15">
         <v>5.1442699999999997</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15">
         <v>0.99356999999999995</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15">
         <v>37.025530000000003</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15">
         <f t="shared" si="0"/>
         <v>3.5632798101584657</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AA15">
         <f t="shared" si="1"/>
         <v>0.26247369753487582</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AB15">
         <f t="shared" si="2"/>
         <v>0.93526722712366273</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>64</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>-65.75</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>-0.77800000000000002</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>11890.737300000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>519.81269999999995</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>4.8845999999999998</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>25.298449999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>407.12653</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>6.9516600000000004</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16">
         <v>1.86974</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>3739.6755800000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>34352.104420000003</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16">
         <v>1058.4053699999999</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16">
         <v>8294.0015199999998</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16">
         <v>381.82808</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>7.36172</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16">
         <v>669.43597</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16">
         <v>10735.40202</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16">
         <v>375.09041000000002</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16">
         <v>10.209149999999999</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16">
         <v>5.1045699999999998</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16">
         <v>0.99675000000000002</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16">
         <v>44.301259999999999</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16">
         <f t="shared" si="0"/>
         <v>3.5333112302708747</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16">
         <f t="shared" si="1"/>
         <v>0.17900910270938528</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AB16">
         <f t="shared" si="2"/>
         <v>0.63249487292378348</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>-64</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>62.25</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>-0.73299999999999998</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>12063.4697</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>519.86850000000004</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>5.0293999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>25.460519999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>407.17002000000002</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>7.17997</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17">
         <v>2.0068800000000002</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17">
         <v>3307.02486</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>31637.438579999998</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17">
         <v>972.38354000000004</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17">
         <v>7838.54342</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <v>381.70949000000002</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>7.5729499999999996</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17">
         <v>624.43940999999995</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17">
         <v>9600.3566100000007</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17">
         <v>374.56124999999997</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17">
         <v>9.7876200000000004</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17">
         <v>4.8938100000000002</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17">
         <v>0.99494000000000005</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17">
         <v>49.642099999999999</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17">
         <f t="shared" si="0"/>
         <v>3.4009469761283699</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17">
         <f t="shared" si="1"/>
         <v>0.18882210942919853</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17">
         <f t="shared" si="2"/>
         <v>0.6421739820894129</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5">
+    <row r="18" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
         <v>-64</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>-65.75</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>-0.755</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>10629.8701</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>519.63570000000004</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>5.0061999999999998</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>25.75066</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>407.54739000000001</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>6.9092500000000001</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>2.1324200000000002</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>3725.1750499999998</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>35086.504229999999</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>1166.82854</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>8995.0863100000006</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <v>381.79673000000003</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>7.2421199999999999</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>0</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>777.90471000000002</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <v>12539.52959</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <v>374.83271999999999</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>10.26207</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>5.13103</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>0.99599000000000004</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="4">
         <v>53.22016</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="4">
         <f t="shared" si="0"/>
         <v>3.1925642219892905</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="4">
         <f t="shared" si="1"/>
         <v>0.20882366588383547</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="4">
         <f t="shared" si="2"/>
         <v>0.66668296440537878</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2200,9 +2209,9 @@
         <v>0.36112300102016465</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>45</v>
@@ -2289,9 +2298,9 @@
         <v>0.32104920838357154</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>90</v>
@@ -2378,9 +2387,9 @@
         <v>0.39773565783146164</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>-45</v>
@@ -2467,9 +2476,9 @@
         <v>0.28990052071682987</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>-90</v>
@@ -2556,9 +2565,9 @@
         <v>0.31536925712332647</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2645,9 +2654,9 @@
         <v>0.40353818738228758</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2734,9 +2743,9 @@
         <v>0.46923980106807955</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2823,9 +2832,9 @@
         <v>0.31384751746936174</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2912,9 +2921,9 @@
         <v>0.37669736336631904</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>32</v>
@@ -3001,9 +3010,9 @@
         <v>0.35323278996992619</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>32</v>
@@ -3090,9 +3099,9 @@
         <v>0.31465248752156966</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>-32</v>
@@ -3179,9 +3188,9 @@
         <v>0.36440618970908711</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>-32</v>
@@ -3268,9 +3277,9 @@
         <v>0.29405287347934234</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>64</v>
@@ -3357,9 +3366,9 @@
         <v>0.49247039544020049</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -3446,9 +3455,9 @@
         <v>0.40749212363154891</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>-64</v>
@@ -3535,98 +3544,98 @@
         <v>0.33649822402433333</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="5">
+    <row r="35" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4">
         <v>-64</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>-65.75</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>-0.753</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>10601.477500000001</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>519.52279999999996</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>4.9603999999999999</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>23.71332</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>406.26868999999999</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>5.6248800000000001</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>1.94499</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>8290.8678</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <v>65434.795420000002</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <v>2133.7615700000001</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="4">
         <v>12197.154119999999</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="4">
         <v>382.55538000000001</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="4">
         <v>5.3700700000000001</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="4">
         <v>746.91616999999997</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="4">
         <v>10509.137919999999</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="4">
         <v>377.07724999999999</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35" s="4">
         <v>8.9572599999999998</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35" s="4">
         <v>4.4786299999999999</v>
       </c>
-      <c r="X35" s="5">
+      <c r="X35" s="4">
         <v>0.99807000000000001</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35" s="4">
         <v>56.6419</v>
       </c>
-      <c r="Z35" s="5">
+      <c r="Z35" s="4">
         <f t="shared" si="0"/>
         <v>3.885564308855745</v>
       </c>
-      <c r="AA35" s="5">
+      <c r="AA35" s="4">
         <f t="shared" si="1"/>
         <v>9.0089021803001129E-2</v>
       </c>
-      <c r="AB35" s="5">
+      <c r="AB35" s="4">
         <f t="shared" si="2"/>
         <v>0.35004668773746822</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3713,9 +3722,9 @@
         <v>0.7794877804666287</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>45</v>
@@ -3802,9 +3811,9 @@
         <v>0.77848545428296123</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>90</v>
@@ -3891,9 +3900,9 @@
         <v>0.88724856879393166</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>-45</v>
@@ -3980,9 +3989,9 @@
         <v>0.7689944604761968</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>-90</v>
@@ -4069,9 +4078,9 @@
         <v>0.894553829307705</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4158,9 +4167,9 @@
         <v>0.87806805859513348</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4247,9 +4256,9 @@
         <v>0.97029310040003502</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4336,9 +4345,9 @@
         <v>0.7261445933206202</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -4425,9 +4434,9 @@
         <v>0.76046135655154234</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -4514,9 +4523,9 @@
         <v>0.72218736288976537</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>32</v>
@@ -4603,9 +4612,9 @@
         <v>0.78114598982821815</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>-32</v>
@@ -4692,9 +4701,9 @@
         <v>0.86847606197751737</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>-32</v>
@@ -4781,9 +4790,9 @@
         <v>0.67520394574076392</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>64</v>
@@ -4870,9 +4879,9 @@
         <v>0.80559223470172847</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>64</v>
@@ -4959,9 +4968,9 @@
         <v>0.78083997967918939</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>-64</v>
@@ -5048,98 +5057,98 @@
         <v>0.83261467245778342</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="5">
+    <row r="52" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4">
         <v>-64</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>-65.75</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>-0.754</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>12353.6836</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>519.53139999999996</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <v>4.9753999999999996</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>25.291419999999999</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="4">
         <v>407.03478000000001</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>7.0103799999999996</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="4">
         <v>2.06162</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>3312.4485100000002</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="4">
         <v>31297.157920000001</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="4">
         <v>972.36303999999996</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="4">
         <v>8001.17904</v>
       </c>
-      <c r="P52" s="5">
+      <c r="P52" s="4">
         <v>381.74336</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="Q52" s="4">
         <v>7.7302400000000002</v>
       </c>
-      <c r="R52" s="5">
+      <c r="R52" s="4">
         <v>0</v>
       </c>
-      <c r="S52" s="5">
+      <c r="S52" s="4">
         <v>659.68663000000004</v>
       </c>
-      <c r="T52" s="5">
+      <c r="T52" s="4">
         <v>10885.808129999999</v>
       </c>
-      <c r="U52" s="5">
+      <c r="U52" s="4">
         <v>374.52528999999998</v>
       </c>
-      <c r="V52" s="5">
+      <c r="V52" s="4">
         <v>10.50517</v>
       </c>
-      <c r="W52" s="5">
+      <c r="W52" s="4">
         <v>5.2525899999999996</v>
       </c>
-      <c r="X52" s="5">
+      <c r="X52" s="4">
         <v>0.99509000000000003</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Y52" s="4">
         <v>49.124580000000002</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="Z52" s="4">
         <f t="shared" si="0"/>
         <v>3.4065964806724867</v>
       </c>
-      <c r="AA52" s="5">
+      <c r="AA52" s="4">
         <f t="shared" si="1"/>
         <v>0.19915377643107876</v>
       </c>
-      <c r="AB52" s="5">
+      <c r="AB52" s="4">
         <f t="shared" si="2"/>
         <v>0.67843655390274815</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5226,9 +5235,9 @@
         <v>0.31105538246066744</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>45</v>
@@ -5315,9 +5324,9 @@
         <v>0.36875660711664399</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>90</v>
@@ -5404,9 +5413,9 @@
         <v>0.50385039248299401</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>-45</v>
@@ -5493,9 +5502,9 @@
         <v>0.40502517314710296</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>-90</v>
@@ -5582,9 +5591,9 @@
         <v>0.39615141710207424</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5671,9 +5680,9 @@
         <v>0.39752639439760584</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5760,9 +5769,9 @@
         <v>0.55998501824540925</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5849,9 +5858,9 @@
         <v>0.36811057475935904</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5938,9 +5947,9 @@
         <v>0.36176278957482028</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>32</v>
@@ -6027,9 +6036,9 @@
         <v>0.38635003852081345</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>32</v>
@@ -6116,9 +6125,9 @@
         <v>0.398540656680542</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>-32</v>
@@ -6205,9 +6214,9 @@
         <v>0.40073532160128461</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>-32</v>
@@ -6294,9 +6303,9 @@
         <v>0.41554660849052882</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -6383,9 +6392,9 @@
         <v>0.57332077851073071</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>64</v>
@@ -6472,9 +6481,9 @@
         <v>0.43584357659627565</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>-64</v>
@@ -6561,98 +6570,98 @@
         <v>0.45943425107323138</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="5">
+    <row r="69" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="4">
         <v>-64</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>-65.75</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>-0.754</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>12036.2695</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <v>519.71579999999994</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>4.9367000000000001</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>23.202729999999999</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="4">
         <v>405.93481000000003</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="4">
         <v>5.2537700000000003</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="4">
         <v>2.1035300000000001</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="4">
         <v>7128.3501299999998</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="4">
         <v>54780.294750000001</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="4">
         <v>1794.1736900000001</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="4">
         <v>10449.205239999999</v>
       </c>
-      <c r="P69" s="5">
+      <c r="P69" s="4">
         <v>382.73208</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="Q69" s="4">
         <v>5.4712399999999999</v>
       </c>
-      <c r="R69" s="5">
+      <c r="R69" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S69" s="4">
         <v>586.46148000000005</v>
       </c>
-      <c r="T69" s="5">
+      <c r="T69" s="4">
         <v>9200.9362299999993</v>
       </c>
-      <c r="U69" s="5">
+      <c r="U69" s="4">
         <v>376.59692000000001</v>
       </c>
-      <c r="V69" s="5">
+      <c r="V69" s="4">
         <v>9.9878599999999995</v>
       </c>
-      <c r="W69" s="5">
+      <c r="W69" s="4">
         <v>4.9939299999999998</v>
       </c>
-      <c r="X69" s="5">
+      <c r="X69" s="4">
         <v>0.997</v>
       </c>
-      <c r="Y69" s="5">
+      <c r="Y69" s="4">
         <v>58.834989999999998</v>
       </c>
-      <c r="Z69" s="5">
+      <c r="Z69" s="4">
         <f t="shared" si="3"/>
         <v>3.9730546544799683</v>
       </c>
-      <c r="AA69" s="5">
+      <c r="AA69" s="4">
         <f t="shared" si="4"/>
         <v>8.2271699524389119E-2</v>
       </c>
-      <c r="AB69" s="5">
+      <c r="AB69" s="4">
         <f t="shared" si="5"/>
         <v>0.32686995872735153</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -6739,9 +6748,9 @@
         <v>0.3921087506730867</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>45</v>
@@ -6828,9 +6837,9 @@
         <v>0.38161954120024849</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>90</v>
@@ -6917,9 +6926,9 @@
         <v>0.43573071904614741</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>-45</v>
@@ -7006,9 +7015,9 @@
         <v>0.39803626476345455</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74">
         <v>-90</v>
@@ -7095,9 +7104,9 @@
         <v>0.37486648470503531</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -7184,9 +7193,9 @@
         <v>0.43746796603014176</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -7273,9 +7282,9 @@
         <v>0.60166497550527676</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -7362,9 +7371,9 @@
         <v>0.39837622302768655</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -7451,9 +7460,9 @@
         <v>0.37986758097905976</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <v>32</v>
@@ -7540,9 +7549,9 @@
         <v>0.37491864936416741</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>32</v>
@@ -7629,9 +7638,9 @@
         <v>0.34723774294424226</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>-32</v>
@@ -7718,9 +7727,9 @@
         <v>0.37295136868488671</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>-32</v>
@@ -7807,9 +7816,9 @@
         <v>0.40146572656626117</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>64</v>
@@ -7896,9 +7905,9 @@
         <v>0.5709115664079254</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>64</v>
@@ -7985,9 +7994,9 @@
         <v>0.37680349620956105</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>-64</v>
@@ -8074,91 +8083,91 @@
         <v>0.3708794875762258</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="5">
+    <row r="86" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4">
         <v>-64</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>-65.75</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>-0.75800000000000001</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>11871.117200000001</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <v>519.57939999999996</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>4.8658999999999999</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>23.20187</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="4">
         <v>405.98304000000002</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="4">
         <v>5.3040900000000004</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="4">
         <v>2.0491999999999999</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="4">
         <v>7181.2518799999998</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="4">
         <v>55128.813589999998</v>
       </c>
-      <c r="N86" s="5">
+      <c r="N86" s="4">
         <v>1797.1853799999999</v>
       </c>
-      <c r="O86" s="5">
+      <c r="O86" s="4">
         <v>11082.69634</v>
       </c>
-      <c r="P86" s="5">
+      <c r="P86" s="4">
         <v>382.78116</v>
       </c>
-      <c r="Q86" s="5">
+      <c r="Q86" s="4">
         <v>5.4022300000000003</v>
       </c>
-      <c r="R86" s="5">
+      <c r="R86" s="4">
         <v>0.46528000000000003</v>
       </c>
-      <c r="S86" s="5">
+      <c r="S86" s="4">
         <v>548.89882</v>
       </c>
-      <c r="T86" s="5">
+      <c r="T86" s="4">
         <v>7827.4530699999996</v>
       </c>
-      <c r="U86" s="5">
+      <c r="U86" s="4">
         <v>376.82558999999998</v>
       </c>
-      <c r="V86" s="5">
+      <c r="V86" s="4">
         <v>9.0783799999999992</v>
       </c>
-      <c r="W86" s="5">
+      <c r="W86" s="4">
         <v>4.5391899999999996</v>
       </c>
-      <c r="X86" s="5">
+      <c r="X86" s="4">
         <v>0.99768000000000001</v>
       </c>
-      <c r="Y86" s="5">
+      <c r="Y86" s="4">
         <v>52.134250000000002</v>
       </c>
-      <c r="Z86" s="5">
+      <c r="Z86" s="4">
         <f t="shared" si="3"/>
         <v>3.9958325723749213</v>
       </c>
-      <c r="AA86" s="5">
+      <c r="AA86" s="4">
         <f t="shared" si="4"/>
         <v>7.6434976682644928E-2</v>
       </c>
-      <c r="AB86" s="5">
+      <c r="AB86" s="4">
         <f t="shared" si="5"/>
         <v>0.3054213694972302</v>
       </c>
